--- a/data/datatest_Login.xlsx
+++ b/data/datatest_Login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelljCode\saucelabsWeb\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B977BD-7353-4225-BC52-E52FAFB16989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0379CF07-523F-4D01-A774-653D0EDA84A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="1680" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{D354659B-1745-4568-A480-CCD1FB0E7AF5}"/>
+    <workbookView xWindow="4155" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{D354659B-1745-4568-A480-CCD1FB0E7AF5}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSuccessful" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +71,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -415,17 +421,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5EA7CC-314F-46EA-B7DE-A6E6552AF4D9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -450,17 +456,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0DD53E-6BC2-4293-B3A1-CCC73FF68AE9}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,17 +474,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -486,7 +492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -495,6 +501,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>